--- a/EsameDic.xlsx
+++ b/EsameDic.xlsx
@@ -978,7 +978,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,25 +1028,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1075,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">

--- a/EsameDic.xlsx
+++ b/EsameDic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -984,8 +984,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="10" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
